--- a/test_data/collections-workbook-sans-context.xlsx
+++ b/test_data/collections-workbook-sans-context.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pt/working/language-research-technology/ro-crate-excel/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5CB13C-B968-3E4B-9A96-CD670A632026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B998614F-EFDE-DA4B-B889-492A8B885C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="760" windowWidth="29020" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="760" windowWidth="29020" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryObject" sheetId="1" r:id="rId1"/>
     <sheet name="File" sheetId="2" r:id="rId2"/>
     <sheet name="SheetDefaults" sheetId="3" r:id="rId3"/>
-    <sheet name="config" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="config" sheetId="4" r:id="rId5"/>
+    <sheet name=".IgnoreMe" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,8 +116,64 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{FE62F630-AE7C-E44B-8E4C-103449ED580E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">There will be a helper to slup up all the files (they should be in a predictable order to aid in filling values in other colums
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Peter Sefton</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{7EF1D1DA-4186-F64A-9E07-0056579015B4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">this is the dir name for the object, but it should be able to be used to generate stuff like the name
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Peter Sefton</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>@id</t>
   </si>
@@ -214,13 +272,28 @@
   </si>
   <si>
     <t>isType_PrimaryMaterial</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>this should be ignored</t>
+  </si>
+  <si>
+    <t>/object1/1_sensitive.mpg</t>
+  </si>
+  <si>
+    <t>/object2/1_sensitive.mpg</t>
+  </si>
+  <si>
+    <t>/object3/1_sensitive.mpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -256,6 +329,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,12 +357,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +584,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -551,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -771,7 +852,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="293" zoomScaleNormal="293" workbookViewId="0">
+    <sheetView zoomScale="293" zoomScaleNormal="293" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -812,6 +893,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3274117F-E3CC-474C-9861-12B87D183E18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -846,4 +939,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2F3334-8355-B441-87BD-E3CCA808E39B}">
+  <dimension ref="A1:AB1048573"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B2," Interview Video"),"/", ""), "o", "O", 1)</f>
+        <v>Object1 Interview Video</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3" si="0">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B3," Interview Video"),"/", ""), "o", "O", 1)</f>
+        <v>Object2 Interview Video</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4" si="1">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B4," Interview Video"),"/", ""), "o", "O", 1)</f>
+        <v>Object3 Interview Video</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1048573" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1048573" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>